--- a/IRCS3_devbuild/Input Sheet_IRCS3.xlsx
+++ b/IRCS3_devbuild/Input Sheet_IRCS3.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. IRCS Automation\Control 2 DEV\IRCS-v2\IRCS3_devbuild\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. IRCS Automation\Control 3 DEV\IRCS-v2\IRCS3_devbuild\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{417B0661-773E-4FC3-8A88-3ED4C5E3F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486BB98E-FC8B-4904-BEEC-B151B38C32B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="INPUT_PATH" sheetId="1" r:id="rId1"/>
+    <sheet name="FILTER_TRAD" sheetId="2" r:id="rId2"/>
+    <sheet name="FILTER_UL" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Source</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Path</t>
   </si>
@@ -50,18 +49,98 @@
     <t>Financial Year</t>
   </si>
   <si>
-    <t>Benchmark exchange rate</t>
-  </si>
-  <si>
     <t>Output filename</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test_file</t>
+  </si>
+  <si>
+    <t>DV_AZTRAD</t>
+  </si>
+  <si>
+    <t>DV_AZUL</t>
+  </si>
+  <si>
+    <t>D:\1. IRCS Automation\Control 3 DEV\IRCS-v2\IRCS3_devbuild\source\DV_AZTRAD_Stat.csv</t>
+  </si>
+  <si>
+    <t>RunName</t>
+  </si>
+  <si>
+    <t>only_kite</t>
+  </si>
+  <si>
+    <t>exclude_kite</t>
+  </si>
+  <si>
+    <t>only_currency</t>
+  </si>
+  <si>
+    <t>exclude_currency</t>
+  </si>
+  <si>
+    <t>only_portfolio</t>
+  </si>
+  <si>
+    <t>only_cohort</t>
+  </si>
+  <si>
+    <t>exclude_cohort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USDIDR </t>
+  </si>
+  <si>
+    <t>exclude_portfolio</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run4</t>
+  </si>
+  <si>
+    <t>Run5</t>
+  </si>
+  <si>
+    <t>PI,NI,NO</t>
+  </si>
+  <si>
+    <t>KT,AG</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>IDR,USD</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -77,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,12 +164,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,43 +514,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E09DF9-B3EB-4807-9185-E50CFCF678DC}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -470,4 +574,176 @@
     <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 Internal&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98396019-94BE-485D-A5D8-067E27DD3CCC}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>16162</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4">
+        <v>2025</v>
+      </c>
+      <c r="J4">
+        <v>2025</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102D1EDE-61C0-4593-ACF6-A951E2D1936D}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>16500</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2">
+        <v>2024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IRCS3_devbuild/Input Sheet_IRCS3.xlsx
+++ b/IRCS3_devbuild/Input Sheet_IRCS3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. IRCS Automation\Control 3 DEV\IRCS-v2\IRCS3_devbuild\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486BB98E-FC8B-4904-BEEC-B151B38C32B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99AC8AB-6102-4EB1-BC4A-4A7DA0A3983D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
+    <workbookView xWindow="6768" yWindow="744" windowWidth="14400" windowHeight="11148" activeTab="1" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_PATH" sheetId="1" r:id="rId1"/>
     <sheet name="FILTER_TRAD" sheetId="2" r:id="rId2"/>
-    <sheet name="FILTER_UL" sheetId="3" r:id="rId3"/>
+    <sheet name="FILTER_UL" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Path</t>
   </si>
@@ -67,9 +67,6 @@
     <t>DV_AZUL</t>
   </si>
   <si>
-    <t>D:\1. IRCS Automation\Control 3 DEV\IRCS-v2\IRCS3_devbuild\source\DV_AZTRAD_Stat.csv</t>
-  </si>
-  <si>
     <t>RunName</t>
   </si>
   <si>
@@ -103,28 +100,10 @@
     <t>Run2</t>
   </si>
   <si>
-    <t>Run4</t>
-  </si>
-  <si>
-    <t>Run5</t>
-  </si>
-  <si>
     <t>PI,NI,NO</t>
   </si>
   <si>
-    <t>KT,AG</t>
-  </si>
-  <si>
-    <t>IDR</t>
-  </si>
-  <si>
-    <t>IDR,USD</t>
-  </si>
-  <si>
-    <t>KT</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>D:\1. IRCS Automation\Control 3 DEV\IRCS-v2\IRCS3_devbuild\source\DV_AZTRAD_Stat_0625_v1.csv</t>
   </si>
 </sst>
 </file>
@@ -517,7 +496,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +528,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -578,91 +557,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98396019-94BE-485D-A5D8-067E27DD3CCC}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>16162</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4">
-        <v>2025</v>
-      </c>
-      <c r="J4">
-        <v>2025</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -671,76 +623,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102D1EDE-61C0-4593-ACF6-A951E2D1936D}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE852304-9EA7-4B97-B05F-87D3EE9C70B0}">
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>16500</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2">
-        <v>2024</v>
       </c>
     </row>
   </sheetData>

--- a/IRCS3_devbuild/Input Sheet_IRCS3.xlsx
+++ b/IRCS3_devbuild/Input Sheet_IRCS3.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. IRCS Automation\Control 3 DEV\IRCS-v2\IRCS3_devbuild\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99AC8AB-6102-4EB1-BC4A-4A7DA0A3983D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE3E6A8-FAEA-442B-A66A-3EB52C672052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6768" yWindow="744" windowWidth="14400" windowHeight="11148" activeTab="1" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_PATH" sheetId="1" r:id="rId1"/>
     <sheet name="FILTER_TRAD" sheetId="2" r:id="rId2"/>
     <sheet name="FILTER_UL" sheetId="4" r:id="rId3"/>
+    <sheet name="VARIABLE_DEF" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>Path</t>
   </si>
@@ -104,13 +105,70 @@
   </si>
   <si>
     <t>D:\1. IRCS Automation\Control 3 DEV\IRCS-v2\IRCS3_devbuild\source\DV_AZTRAD_Stat_0625_v1.csv</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>USDIDR</t>
+  </si>
+  <si>
+    <t>only_</t>
+  </si>
+  <si>
+    <t>exclude_</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>exclude_period</t>
+  </si>
+  <si>
+    <t>only_period</t>
+  </si>
+  <si>
+    <t>cohort</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>IDR,USD</t>
+  </si>
+  <si>
+    <t>PI,NI,NO,UL,GS,SN,SI,SH,YRT</t>
+  </si>
+  <si>
+    <t>Q1,Q2,Q3,Q4,IF</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>AG,NK,KT,OT</t>
+  </si>
+  <si>
+    <t>channel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +180,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -557,10 +621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98396019-94BE-485D-A5D8-067E27DD3CCC}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,10 +635,12 @@
     <col min="6" max="7" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -605,8 +671,14 @@
       <c r="J1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -617,17 +689,26 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>16162</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE852304-9EA7-4B97-B05F-87D3EE9C70B0}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +722,7 @@
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -671,6 +752,107 @@
       </c>
       <c r="J1" t="s">
         <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA4B8BF-6CE6-426C-98DB-79856DF47CE6}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/IRCS3_devbuild/Input Sheet_IRCS3.xlsx
+++ b/IRCS3_devbuild/Input Sheet_IRCS3.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. IRCS Automation\Control 3 DEV\IRCS-v2\IRCS3_devbuild\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4818C3DD-B150-4E82-9597-8F0E3DB69BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C655E2FC-C4C9-4BAB-BAEB-4D0EB821719B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
   </bookViews>
   <sheets>
-    <sheet name="INPUT_PATH" sheetId="1" r:id="rId1"/>
+    <sheet name="INPUT_SETTING" sheetId="1" r:id="rId1"/>
     <sheet name="FILTER_TRAD" sheetId="2" r:id="rId2"/>
     <sheet name="FILTER_UL" sheetId="4" r:id="rId3"/>
     <sheet name="VARIABLE_DEF" sheetId="5" r:id="rId4"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>Path</t>
   </si>
@@ -47,12 +47,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test_file</t>
-  </si>
-  <si>
     <t>DV_AZTRAD</t>
   </si>
   <si>
@@ -194,6 +188,9 @@
     <t>D:\1. IRCS Automation\Control 3 DEV\Source\Data_Extraction_run142TRAD_Con.xlsx</t>
   </si>
   <si>
+    <t>run5</t>
+  </si>
+  <si>
     <t>FX Rate Valdate</t>
   </si>
   <si>
@@ -201,6 +198,33 @@
   </si>
   <si>
     <t>Valuation Year</t>
+  </si>
+  <si>
+    <t>test_fileul</t>
+  </si>
+  <si>
+    <t>test_filetrad</t>
+  </si>
+  <si>
+    <t>SH,UL,PI</t>
+  </si>
+  <si>
+    <t>path_dv</t>
+  </si>
+  <si>
+    <t>refer to FILTER_UL sheet</t>
+  </si>
+  <si>
+    <t>path_uvsg</t>
+  </si>
+  <si>
+    <t>D:\1. IRCS Automation\Control 3 DEV\Source\DV_AZUL_Stat_Con_2Q25.xlsx</t>
+  </si>
+  <si>
+    <t>D:\1. IRCS Automation\Control 3 DEV\Source\Data_Extraction_run4UL_Con.xlsx</t>
+  </si>
+  <si>
+    <t>D:\1. IRCS Automation\Control 3 DEV\Source\Data_Extraction_run4UVSG.xlsx</t>
   </si>
 </sst>
 </file>
@@ -598,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E09DF9-B3EB-4807-9185-E50CFCF678DC}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,7 +642,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -626,7 +650,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>2025</v>
@@ -634,7 +658,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>16233</v>
@@ -642,39 +666,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +717,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,71 +735,71 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
       </c>
       <c r="C2">
         <v>16233</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>16588</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J3">
         <v>2025</v>
@@ -780,16 +807,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>16233</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>2025</v>
@@ -797,16 +824,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>16162</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -817,65 +844,115 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE852304-9EA7-4B97-B05F-87D3EE9C70B0}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2">
+        <v>16233</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3">
+        <v>16234</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -885,7 +962,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,85 +974,85 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/IRCS3_devbuild/Input Sheet_IRCS3.xlsx
+++ b/IRCS3_devbuild/Input Sheet_IRCS3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. IRCS Automation\Control 3 DEV\IRCS-v2\IRCS3_devbuild\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicho/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C655E2FC-C4C9-4BAB-BAEB-4D0EB821719B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DCDE62-0394-A548-853D-83F53E350053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SETTING" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>Path</t>
   </si>
@@ -212,9 +212,6 @@
     <t>path_dv</t>
   </si>
   <si>
-    <t>refer to FILTER_UL sheet</t>
-  </si>
-  <si>
     <t>path_uvsg</t>
   </si>
   <si>
@@ -225,6 +222,63 @@
   </si>
   <si>
     <t>D:\1. IRCS Automation\Control 3 DEV\Source\Data_Extraction_run4UVSG.xlsx</t>
+  </si>
+  <si>
+    <t>Which product architecture to run:`
+• conv: Traditional (“conventional”) life‑and‑health insurance products.
+• sha: Shariah‑compliant variants.</t>
+  </si>
+  <si>
+    <t>Exchange rate override:
+• A numeric rate to convert USD liabilities/premiums into IDR (e.g. 14 800).
+• If left blank, the system will return an error</t>
+  </si>
+  <si>
+    <t>Inclusion filters:
+• Prefix one of the other fields (channel, currency, portfolio, cohort, period) with only_ to restrict the run to exactly those codes.
+• E.g. only_currency=USD runs solely USD data.</t>
+  </si>
+  <si>
+    <t>Exclusion filters:
+• Prefix with exclude_ to drop unwanted slices from the run.
+• E.g. exclude_portfolio=SN,SI removes SN,SI portfolio from program.</t>
+  </si>
+  <si>
+    <t>Policy cohort grouping:
+• Use to segment by issue year (e.g. 2014, 2024, 2025)
+• If blank, show all cohort</t>
+  </si>
+  <si>
+    <t>Reporting period slices:
+• Q1, Q2, Q3, Q4 — calendar quarters
+• IF — In‑force as‑of date (snapshot) run
+• If blank, show all period</t>
+  </si>
+  <si>
+    <t>Business portfolio:
+• PI (Protection Individual)
+• NI (Non‑Individual protection – group lives)
+• NO (Non‑participating ordinary life)
+• UL (Unit‑linked investment products)
+• GS (Group Savings)
+• SN/SI (Saving plans – shariah &amp; conv)
+• SH (Shariah savings)
+• YR (Yearly renewable term/live cover)
+• If blank, show all portfolio</t>
+  </si>
+  <si>
+    <t>Monetary unit of measure:
+• IDR: Indonesian Rupiah
+• USD: US Dollar
+• If blank, show all denomination</t>
+  </si>
+  <si>
+    <t>Distribution channels:
+• AG (Agency)
+• NK (None Kite)
+• KT (Kite)
+• OT (Other)
+• If blank, show all channel</t>
   </si>
 </sst>
 </file>
@@ -254,15 +308,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -279,13 +339,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,17 +714,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E09DF9-B3EB-4807-9185-E50CFCF678DC}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="184" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -640,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -648,7 +740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -656,7 +748,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -664,7 +756,7 @@
         <v>16233</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -672,7 +764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -680,15 +772,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -696,7 +788,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -716,24 +808,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98396019-94BE-485D-A5D8-067E27DD3CCC}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="186" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -774,7 +866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -788,7 +880,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -805,7 +897,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -822,7 +914,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -846,25 +938,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE852304-9EA7-4B97-B05F-87D3EE9C70B0}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="167" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -875,7 +967,7 @@
         <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -911,18 +1003,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
       </c>
       <c r="E2">
         <v>16233</v>
@@ -931,18 +1023,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>49</v>
       </c>
       <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
       </c>
       <c r="E3">
         <v>16234</v>
@@ -961,98 +1053,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA4B8BF-6CE6-426C-98DB-79856DF47CE6}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C3" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C6" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C7" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="160" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C9" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/IRCS3_devbuild/Input Sheet_IRCS3.xlsx
+++ b/IRCS3_devbuild/Input Sheet_IRCS3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicho/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stanislausdosemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DCDE62-0394-A548-853D-83F53E350053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706C4605-A9BD-4D98-9E75-20F2E53A7BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SETTING" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
   <si>
     <t>Path</t>
   </si>
@@ -280,12 +280,15 @@
 • OT (Other)
 • If blank, show all channel</t>
   </si>
+  <si>
+    <t>pls check abbreviation and explanation pairs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +306,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -363,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -378,6 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,16 +726,16 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="184" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -732,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -740,7 +751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -748,7 +759,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -756,7 +767,7 @@
         <v>16233</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -764,7 +775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -772,15 +783,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="str">
+        <f>B6</f>
+        <v>D:\1. IRCS Automation\Control 3 DEV\Source\DV_AZTRAD_Stat_0625_v1.csv</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -788,7 +800,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -808,24 +820,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98396019-94BE-485D-A5D8-067E27DD3CCC}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScale="186" workbookViewId="0">
+    <sheetView zoomScale="130" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -866,7 +878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -880,7 +892,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -897,7 +909,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -914,7 +926,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -942,21 +954,21 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1003,7 +1015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1023,7 +1035,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1051,20 +1063,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA4B8BF-6CE6-426C-98DB-79856DF47CE6}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="133" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.5" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1075,7 +1087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
@@ -1086,7 +1098,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1097,7 +1109,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1108,7 +1120,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1119,7 +1131,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -1130,7 +1142,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -1141,7 +1153,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="160" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1152,7 +1164,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1163,7 +1175,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1172,6 +1184,11 @@
       </c>
       <c r="C10" s="4" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
